--- a/public/data/ReprintingOfLabeling.xlsx
+++ b/public/data/ReprintingOfLabeling.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22451" windowHeight="9767" tabRatio="892" firstSheet="39" activeTab="39"/>
+    <workbookView windowWidth="22451" windowHeight="9360" tabRatio="892" firstSheet="8" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="ChangeCategory" sheetId="1" r:id="rId1"/>
@@ -56,14 +56,13 @@
     <sheet name="Multi" sheetId="47" r:id="rId47"/>
     <sheet name="PurposeReprintinglabeldropdown" sheetId="48" r:id="rId48"/>
     <sheet name="DropdownAttributeChange" sheetId="49" r:id="rId49"/>
-    <sheet name="SubsmithReprintingLine" sheetId="50" r:id="rId50"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236">
   <si>
     <t>testCaseName</t>
   </si>
@@ -126,8 +125,8 @@
 TC_23,TC_20</t>
   </si>
   <si>
-    <t>1.After posting, if the user selects "Subsmith Change" from the "Purpose of Reprinting" dropdown, the scanned Subsmith should be updated in all tags under the Subsmith column.
-2.After scanning tag all fields in header should be disable except scan tag.</t>
+    <t>1.Verify Post functionalty_After posting, if the user selects "Subsmith Change" from the "Purpose of Reprinting" dropdown, the scanned Subsmith should be updated in all tags under the Subsmith column.
+2.Verify Scan tag field if User select dropdown value as "Subsmith Change" from "Purpose of Reprinting" dropdown_After scanning tag all fields in header should be disable except scan tag.</t>
   </si>
   <si>
     <t>OM JEWELS</t>
@@ -187,8 +186,8 @@
     <t>Smote</t>
   </si>
   <si>
-    <t>1.Verify Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.
-2.After scanned the tag ,change subsmith name should be reflected in reprinting of label line with respective column</t>
+    <t>1.Verify Validate functionlity_Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.
+2.Verify Scan tag field if User select dropdown value as "Subsmith Change" from "Purpose of Reprinting" dropdown_After scanned the tag ,change subsmith name should be reflected in reprinting of label line with respective column</t>
   </si>
   <si>
     <t>ACP000000079</t>
@@ -200,7 +199,7 @@
     <t>TC_22</t>
   </si>
   <si>
-    <t xml:space="preserve"> System should display a "Posted Successfully" message upon clicking the Post button. </t>
+    <t xml:space="preserve"> Verify Post functionalty_System should display a "Posted Successfully" message upon clicking the Post button. </t>
   </si>
   <si>
     <t>TC_18</t>
@@ -297,9 +296,10 @@
 TC_31,TC_27,TC_28</t>
   </si>
   <si>
-    <t>1.After posting, if the user selects "Ornament Size1" from the "Purpose of Reprinting" dropdown, the scanned tag Ornament Size should be updated in all tags under the Ornament Size1 column.
-2.Verify User should able to enter size value in value field
-3.Verify After scanning tag all fields in header should be disable except scan tag.</t>
+    <t>1.Verify Post functionalty_After posting, if the user selects "Ornament Size1" from the "Purpose of Reprinting" dropdown, the scanned tag Ornament Size should be updated in all tags under the Ornament Size1 column.
+2.Verify Verify Ornament Size  dropdown_ User should able to enter size value in value field
+3.Verify Scan tag field if User select dropdown value as "Ornament Size" from "Attribute Change" dropdown_ After scanning tag all fields in header should be disable except scan tag.
+4.Verify Scan tag field if User select dropdown value as "Ornament Size" from "Attribute Change" dropdown_ User should able to scan same item group and release tag</t>
   </si>
   <si>
     <t>7.00</t>
@@ -309,21 +309,21 @@
 TC_29</t>
   </si>
   <si>
-    <t>Verify Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.</t>
+    <t>Verify Verify Validate functionlity_ Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.</t>
   </si>
   <si>
     <t xml:space="preserve">
 TC_30</t>
   </si>
   <si>
-    <t xml:space="preserve"> System should display a "Posted Successfully" message upon clicking the Post button.</t>
+    <t>Verify Post functionalty_ System should display a "Posted Successfully" message upon clicking the Post button.</t>
   </si>
   <si>
     <t xml:space="preserve">
 TC_43</t>
   </si>
   <si>
-    <t>1.After posting, if the user selects "Design Code" from the "Purpose of Reprinting" dropdown, the scanned tag Design code should be updated in all tags under the Design code column.</t>
+    <t>1.Verify Post Functionality_After posting, if the user selects "Design Code" from the "Purpose of Reprinting" dropdown, the scanned tag Design code should be updated in all tags under the Design code column.</t>
   </si>
   <si>
     <t>Design Code</t>
@@ -339,7 +339,7 @@
 TC_34</t>
   </si>
   <si>
-    <t>1.After scanned the tag with valid information ,Hm pcs should be reflected in reprinting of label line with respective column.</t>
+    <t>1.Verify Post Functionality_After scanned the tag with valid information ,Hm pcs should be reflected in reprinting of label line with HM Pcs column.</t>
   </si>
   <si>
     <t>HM Pcs</t>
@@ -355,7 +355,7 @@
 TC_55</t>
   </si>
   <si>
-    <t>1.After posting, if the user selects "Collection Code" from the "Purpose of Reprinting" dropdown, the scanned tag collection code should be updated in all tags under the Collection Code column.</t>
+    <t>1.Verify Post Functionality_.After posting, if the user selects "Collection Code" from the "Purpose of Reprinting" dropdown, the scanned tag collection code should be updated in all tags under the Collection Code column.</t>
   </si>
   <si>
     <t>Collection Code</t>
@@ -367,7 +367,7 @@
     <t>AAF000000009</t>
   </si>
   <si>
-    <t>1.After posting, if the user selects "Certificate No." from the "Purpose of Reprinting" dropdown, the scanned tag Certificate No. should be updated in all tags under the Certificate No. column.</t>
+    <t>1.Verify Post Functionality_After posting, if the user selects "Certificate No." from the "Purpose of Reprinting" dropdown, the scanned tag Certificate No. should be updated in all tags under the Certificate No. column.</t>
   </si>
   <si>
     <t>Certificate No.</t>
@@ -410,10 +410,10 @@
     <t>No Design Code is present in Design Code Master against tag's item and configuration.</t>
   </si>
   <si>
-    <t>Verify system throws an error when scan sold tag</t>
-  </si>
-  <si>
-    <t>Verify system throws an error when scan consumed tag</t>
+    <t>Verify Scan tag field if User select dropdown value as "Hm Pcs" from "Attribute Change" dropdown_system throws an error when scan sold tag</t>
+  </si>
+  <si>
+    <t>Verify Scan tag field if User select dropdown value as "Hm Pcs" from "Attribute Change" dropdown_ system throws an error when scan consumed tag</t>
   </si>
   <si>
     <t>Verify Scan tag field if User select dropdown value as "Hm Pcs" from "Attribute Change" dropdown(system throws an error when scan invalid tag)</t>
@@ -470,7 +470,7 @@
     <t>ReP12</t>
   </si>
   <si>
-    <t>AGN000000181</t>
+    <t>AGN000000183</t>
   </si>
   <si>
     <t>No Collection Code is present in Collection Code Master.</t>
@@ -502,7 +502,7 @@
     <t>Verify Scan tag field if User select dropdown value as "Certificate No" from "Attribute Change" dropdown( system throws an error when scan different location bulk tag)</t>
   </si>
   <si>
-    <t>Verify System should throw an error when entering invalid data or leaving mandatory fields blank.</t>
+    <t>Verify Scan tag field if User select dropdown value as "Certificate No" from "Attribute Change" dropdown_ System should throw an error when entering invalid data or leaving mandatory fields blank.</t>
   </si>
   <si>
     <t>Field 'Value' must be filled in.</t>
@@ -512,29 +512,35 @@
 TC_41</t>
   </si>
   <si>
-    <t>Verify System should show a validation message after entering mandatory fields with valid data and clicking the Validate button</t>
+    <t>Verify Validate functionlity_System should show a validation message after entering mandatory fields with valid data and clicking the Validate button</t>
   </si>
   <si>
     <t xml:space="preserve">
 TC_42</t>
   </si>
   <si>
-    <t xml:space="preserve"> Verify  System should display a "Posted Successfully" message upon clicking the Post button.. </t>
+    <t xml:space="preserve">Verify Post functionalty_System should display a "Posted Successfully" message upon clicking the Post button.. </t>
+  </si>
+  <si>
+    <t>Verify Validate functionlity_ Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.</t>
   </si>
   <si>
     <t xml:space="preserve">
 TC_36</t>
   </si>
   <si>
+    <t xml:space="preserve">Verify Post functionalty_ System should display a "Posted Successfully" message upon clicking the Post button. </t>
+  </si>
+  <si>
+    <t>AGN000000181</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 TC_54</t>
   </si>
   <si>
     <t xml:space="preserve">
 TC_47</t>
-  </si>
-  <si>
-    <t>System should show a validation message after entering mandatory fields with valid data and clicking the Validate button</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -585,7 +591,7 @@
     <t>TC_2</t>
   </si>
   <si>
-    <t>Verify User should be able select location from dropdown.</t>
+    <t>Verify Location field_User should be able select location from dropdown.</t>
   </si>
   <si>
     <t>Checking1</t>
@@ -594,7 +600,7 @@
     <t>TC_3</t>
   </si>
   <si>
-    <t>Verify Location dropdown should be single selection</t>
+    <t>Validation of Location field_ Location dropdown should be single selection</t>
   </si>
   <si>
     <t>Select Item</t>
@@ -610,7 +616,7 @@
 TC_17,TC_12</t>
   </si>
   <si>
-    <t xml:space="preserve">1.After posting, if the user selects "Rate Revision" from the "Purpose of Reprinting" dropdown, the scanned tag rate should be updated in all tags under the Rate column.
+    <t xml:space="preserve">1.Verify Post functionalty_After posting, if the user selects "Rate Revision" from the "Purpose of Reprinting" dropdown, the scanned tag rate should be updated in all tags under the Rate column.
 2.Making rate should be changes as per selected wastage code.
 </t>
   </si>
@@ -647,6 +653,9 @@
   </si>
   <si>
     <t>Verify Scan tag field if User select dropdown value as "Rate Revision" from "Purpose of Reprinting" dropdown( system throws an error when scan sold tag)</t>
+  </si>
+  <si>
+    <t>F2</t>
   </si>
   <si>
     <t>Verify Scan tag field if User select dropdown value as "Rate Revision" from "Purpose of Reprinting" dropdown( system throws an error when scan consumed tag)</t>
@@ -717,8 +726,8 @@
     <t>cup000000068</t>
   </si>
   <si>
-    <t>Verify After posting, if the user selects "Rate Revision" from the "Purpose of Reprinting" dropdown, the scanned tag rate should be updated in all tags under the Rate column
-2.User should be able to enter rate manually and it is relected in all tag after posting.</t>
+    <t>1.Verify Post functionalty_ After posting, if the user selects "Rate Revision" from the "Purpose of Reprinting" dropdown, the scanned tag rate should be updated in all tags under the Rate column
+2.User should be able to enter rate manually and it is reflected in all tag after posting.</t>
   </si>
   <si>
     <t>ANG100020</t>
@@ -728,13 +737,13 @@
 TC_15</t>
   </si>
   <si>
+    <t>Verify "Validate" functionlity_Getting a validation message after entering mandatory fields with valid data and clicking on the Validate button.</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 TC_16</t>
   </si>
   <si>
-    <t>Verify System should display a "Posted Successfully" message upon clicking the Post button.</t>
-  </si>
-  <si>
     <t>cup000000070</t>
   </si>
   <si>
@@ -778,6 +787,9 @@
     <t>TC_21</t>
   </si>
   <si>
+    <t>Verify Validate functionl_System should throws an error while entering invalid data and blank mandatory fields</t>
+  </si>
+  <si>
     <t xml:space="preserve">
 Field 'Sub Smith Name' must be filled in.</t>
   </si>
@@ -791,7 +803,7 @@
     <t>TC_03</t>
   </si>
   <si>
-    <t>Verify User scan multiple tags against location</t>
+    <t>Validation of Location field_User scan multiple tags against location</t>
   </si>
   <si>
     <t>1</t>
@@ -812,7 +824,7 @@
     <t>TC_04</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify Purpose of Reprinting dropdown should be consist of below :
+    <t xml:space="preserve">Verify that purpose of reprinting dropdown _Purpose of Reprinting dropdown should be consist of below :
 1.Only reprinting of label
 2.Rate revision
 3.Sub-smith change
@@ -823,7 +835,7 @@
     <t>TC_25</t>
   </si>
   <si>
-    <t xml:space="preserve">Verify Attribute Change dropdown consits of below options:   
+    <t xml:space="preserve">Verify Attribute change dropdown_ Attribute Change dropdown consits of below options:   
 I) Ornament size 1
 II)Design ode
 III) HM Pcs
@@ -837,13 +849,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="7">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="0;[Red]0"/>
-    <numFmt numFmtId="180" formatCode="0.00;[Red]0.00"/>
-    <numFmt numFmtId="181" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="182" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="0;[Red]0"/>
+    <numFmt numFmtId="179" formatCode="0.00;[Red]0.00"/>
+    <numFmt numFmtId="180" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="181" formatCode="_ &quot;₹&quot;\ * #,##0_ ;_ &quot;₹&quot;\ * \-#,##0_ ;_ &quot;₹&quot;\ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="182" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="28">
     <font>
@@ -902,19 +914,18 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -935,7 +946,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -950,21 +968,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -972,7 +976,29 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -986,38 +1012,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1032,17 +1036,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1067,7 +1079,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1079,13 +1139,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1097,13 +1157,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1115,55 +1187,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,19 +1247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,49 +1259,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1276,6 +1288,39 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1294,8 +1339,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1330,21 +1375,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1355,175 +1385,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="182" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1554,7 +1566,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1564,13 +1576,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1585,19 +1600,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1995,7 +2013,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -2048,7 +2066,7 @@
       <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2123,7 +2141,7 @@
       <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="20" t="s">
+      <c r="G2" s="21" t="s">
         <v>58</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2198,7 +2216,7 @@
       <c r="F2" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>74</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2219,7 +2237,7 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
@@ -2257,7 +2275,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="345.6" spans="1:9">
+    <row r="2" ht="388.8" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>79</v>
       </c>
@@ -2298,7 +2316,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -2332,7 +2350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="216" spans="1:9">
+    <row r="2" ht="259.2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
@@ -2351,7 +2369,7 @@
       <c r="F2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -2372,8 +2390,8 @@
   <sheetPr/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -2407,7 +2425,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="345.6" spans="1:9">
+    <row r="2" ht="388.8" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -2482,7 +2500,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="345.6" spans="1:9">
+    <row r="2" ht="388.8" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>89</v>
       </c>
@@ -2522,8 +2540,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -2582,10 +2600,10 @@
       <c r="G2" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -2611,7 +2629,7 @@
       <c r="G3" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2625,7 +2643,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>101</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2640,7 +2658,7 @@
       <c r="G4" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2669,7 +2687,7 @@
       <c r="G5" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -2730,7 +2748,7 @@
       <c r="H7" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="19" t="s">
         <v>107</v>
       </c>
     </row>
@@ -2780,14 +2798,14 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="93.6" spans="1:9">
+    <row r="2" ht="327.6" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>108</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -2799,24 +2817,24 @@
       <c r="F2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="3" ht="109.2" spans="1:9">
+    <row r="3" ht="343.2" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>84</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>109</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -2828,10 +2846,10 @@
       <c r="F3" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -2845,7 +2863,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>110</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -2857,10 +2875,10 @@
       <c r="F4" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G4" s="21" t="s">
+      <c r="G4" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -2874,7 +2892,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>111</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -2886,10 +2904,10 @@
       <c r="F5" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G5" s="21" t="s">
+      <c r="G5" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -2903,7 +2921,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>112</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -2915,10 +2933,10 @@
       <c r="F6" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G6" s="21" t="s">
+      <c r="G6" s="22" t="s">
         <v>87</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>113</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -2944,10 +2962,10 @@
       <c r="F7" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G7" s="22" t="s">
+      <c r="G7" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>88</v>
       </c>
       <c r="I7" s="4" t="s">
@@ -2973,7 +2991,7 @@
       <c r="F8" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="18" t="s">
         <v>88</v>
       </c>
       <c r="I8" s="13" t="s">
@@ -2991,8 +3009,8 @@
   <sheetPr/>
   <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -3033,7 +3051,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>121</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3048,10 +3066,10 @@
       <c r="G2" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3062,7 +3080,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>122</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3077,7 +3095,7 @@
       <c r="G3" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
       <c r="I3" s="11" t="s">
@@ -3091,7 +3109,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>123</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3106,7 +3124,7 @@
       <c r="G4" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -3120,7 +3138,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>124</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3135,7 +3153,7 @@
       <c r="G5" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I5" s="13" t="s">
@@ -3164,7 +3182,7 @@
       <c r="G6" t="s">
         <v>126</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I6" s="13" t="s">
@@ -3190,7 +3208,7 @@
       <c r="F7" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="18" t="s">
         <v>127</v>
       </c>
       <c r="I7" s="11" t="s">
@@ -3217,7 +3235,7 @@
     <col min="7" max="7" width="14.4444444444444" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="43.2" spans="1:8">
+    <row r="1" ht="57.6" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3230,7 +3248,7 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="9" t="s">
@@ -3281,7 +3299,7 @@
   <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6"/>
@@ -3322,7 +3340,7 @@
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="18" t="s">
         <v>132</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -3337,10 +3355,10 @@
       <c r="G2" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -3351,7 +3369,7 @@
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="18" t="s">
         <v>133</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -3366,10 +3384,10 @@
       <c r="G3" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -3380,7 +3398,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="18" t="s">
         <v>134</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -3395,7 +3413,7 @@
       <c r="G4" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -3409,7 +3427,7 @@
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="18" t="s">
         <v>135</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -3424,7 +3442,7 @@
       <c r="G5" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>113</v>
       </c>
       <c r="I5" s="11" t="s">
@@ -3438,7 +3456,7 @@
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C6" s="18" t="s">
         <v>136</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -3453,7 +3471,7 @@
       <c r="G6" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>34</v>
       </c>
       <c r="I6" s="11" t="s">
@@ -3480,8 +3498,8 @@
         <v>95</v>
       </c>
       <c r="G7" s="14"/>
-      <c r="H7" s="17" t="s">
-        <v>97</v>
+      <c r="H7" s="18" t="s">
+        <v>127</v>
       </c>
       <c r="I7" s="11" t="s">
         <v>138</v>
@@ -3499,7 +3517,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3533,7 +3551,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="230.4" spans="1:9">
+    <row r="2" ht="259.2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>139</v>
       </c>
@@ -3574,7 +3592,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3608,7 +3626,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="172.8" spans="1:9">
+    <row r="2" ht="201.6" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>141</v>
       </c>
@@ -3683,7 +3701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="201.6" spans="1:9">
+    <row r="2" ht="244.8" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>117</v>
       </c>
@@ -3691,7 +3709,7 @@
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -3702,7 +3720,7 @@
       <c r="F2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -3724,7 +3742,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3758,15 +3776,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="158.4" spans="1:9">
+    <row r="2" ht="216" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -3777,7 +3795,7 @@
       <c r="F2" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G2" s="21" t="s">
+      <c r="G2" s="22" t="s">
         <v>87</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -3799,7 +3817,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3833,7 +3851,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="230.4" spans="1:9">
+    <row r="2" ht="259.2" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>129</v>
       </c>
@@ -3856,7 +3874,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>42</v>
@@ -3874,7 +3892,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3908,9 +3926,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="158.4" spans="1:9">
+    <row r="2" ht="201.6" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -3931,7 +3949,7 @@
         <v>92</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>127</v>
+        <v>146</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
@@ -3949,7 +3967,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -3983,15 +4001,15 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="216" spans="1:9">
+    <row r="2" ht="259.2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -4024,7 +4042,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -4058,9 +4076,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="158.4" spans="1:9">
+    <row r="2" ht="201.6" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
@@ -4132,13 +4150,13 @@
     </row>
     <row r="2" ht="230.4" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -4168,7 +4186,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -4224,7 +4242,7 @@
       <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -4250,7 +4268,7 @@
       <c r="G3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4302,7 +4320,7 @@
       <c r="G5" t="s">
         <v>34</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -4377,13 +4395,13 @@
     </row>
     <row r="2" ht="201.6" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -4446,13 +4464,13 @@
     </row>
     <row r="2" ht="216" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -4515,13 +4533,13 @@
     </row>
     <row r="2" ht="216" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -4572,13 +4590,13 @@
     </row>
     <row r="2" ht="86.4" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
@@ -4612,18 +4630,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="129.6" spans="1:4">
+    <row r="2" ht="144" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D2" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -4638,7 +4656,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="3"/>
@@ -4657,18 +4675,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:4">
+    <row r="2" ht="129.6" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
-      </c>
-      <c r="D2" t="s">
-        <v>160</v>
       </c>
     </row>
   </sheetData>
@@ -4683,7 +4701,7 @@
   <dimension ref="A1:J2"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -4705,10 +4723,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -4717,39 +4735,39 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="I2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="23" t="s">
-        <v>172</v>
+      <c r="J2" s="24" t="s">
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -4763,8 +4781,8 @@
   <sheetPr/>
   <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -4786,10 +4804,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -4800,52 +4818,52 @@
     </row>
     <row r="2" ht="374.4" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G2" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="G2" s="25" t="s">
+        <v>177</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="13" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G3" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="H3" t="s">
         <v>25</v>
@@ -4856,25 +4874,25 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="G4" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="H4" t="s">
         <v>28</v>
@@ -4885,25 +4903,25 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="24" t="s">
-        <v>175</v>
+        <v>171</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>181</v>
       </c>
       <c r="H5" t="s">
         <v>31</v>
@@ -4914,25 +4932,25 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G6" s="26" t="s">
         <v>181</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G6" s="24" t="s">
-        <v>175</v>
       </c>
       <c r="H6" t="s">
         <v>34</v>
@@ -4975,7 +4993,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>7</v>
@@ -4983,22 +5001,22 @@
     </row>
     <row r="2" ht="409.5" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>48</v>
@@ -5038,45 +5056,45 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" ht="158.4" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G2" s="14" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>48</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
   </sheetData>
@@ -5090,8 +5108,8 @@
   <sheetPr/>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -5122,7 +5140,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="403.2" spans="1:8">
+    <row r="2" ht="409.5" spans="1:8">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
@@ -5159,8 +5177,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -5182,10 +5200,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -5196,25 +5214,25 @@
     </row>
     <row r="2" ht="144" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H2" s="7" t="s">
         <v>48</v>
@@ -5225,25 +5243,25 @@
     </row>
     <row r="3" ht="172.8" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>48</v>
@@ -5263,8 +5281,8 @@
   <sheetPr/>
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="2"/>
@@ -5286,74 +5304,74 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" ht="409.5" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>197</v>
+        <v>201</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="3" ht="409.5" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="I3" s="21" t="s">
         <v>200</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -5390,48 +5408,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="201.6" spans="1:10">
+    <row r="2" ht="259.2" spans="1:10">
       <c r="A2" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>197</v>
+      <c r="I2" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="J2" t="s">
         <v>42</v>
@@ -5471,48 +5489,48 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
       </c>
       <c r="I1" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="172.8" spans="1:10">
+    <row r="2" ht="216" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>78</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="I2" s="20" t="s">
-        <v>197</v>
+        <v>207</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
@@ -5530,7 +5548,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="5"/>
@@ -5552,10 +5570,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="H1" s="7" t="s">
         <v>7</v>
@@ -5566,28 +5584,28 @@
     </row>
     <row r="2" ht="28.8" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G2" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G2" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>26</v>
@@ -5595,28 +5613,28 @@
     </row>
     <row r="3" ht="28.8" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G3" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="I3" s="7" t="s">
         <v>29</v>
@@ -5624,28 +5642,28 @@
     </row>
     <row r="4" ht="28.8" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G4" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="I4" s="11" t="s">
         <v>32</v>
@@ -5653,28 +5671,28 @@
     </row>
     <row r="5" ht="37.8" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>197</v>
+        <v>193</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H5" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="I5" s="13" t="s">
         <v>37</v>
@@ -5682,31 +5700,31 @@
     </row>
     <row r="6" ht="28.8" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>193</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>197</v>
+        <v>196</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>200</v>
       </c>
       <c r="H6" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
@@ -5721,7 +5739,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -5754,13 +5772,13 @@
     </row>
     <row r="2" ht="86.4" spans="1:8">
       <c r="A2" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -5772,7 +5790,7 @@
         <v>41</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
   </sheetData>
@@ -5787,7 +5805,7 @@
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1"/>
@@ -5812,24 +5830,24 @@
         <v>18</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="H1" s="9" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="I1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" ht="86.4" spans="1:9">
+    <row r="2" ht="129.6" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -5840,11 +5858,11 @@
       <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="22" t="s">
-        <v>223</v>
+      <c r="H2" s="23" t="s">
+        <v>227</v>
       </c>
       <c r="I2" s="11" t="s">
         <v>17</v>
@@ -5869,10 +5887,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C1" s="5" t="s">
         <v>7</v>
@@ -5908,7 +5926,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -5919,7 +5937,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -5930,7 +5948,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -5964,15 +5982,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="302.4" spans="1:4">
+    <row r="2" ht="388.8" spans="1:4">
       <c r="A2" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -5990,7 +6008,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="5"/>
@@ -6013,15 +6031,15 @@
       </c>
       <c r="F1" s="3"/>
     </row>
-    <row r="2" ht="302.4" spans="1:5">
+    <row r="2" ht="360" spans="1:5">
       <c r="A2" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="B2" t="s">
         <v>39</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>12</v>
@@ -6042,7 +6060,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="7"/>
@@ -6100,22 +6118,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4"/>
-  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
@@ -6126,8 +6128,8 @@
   <sheetPr/>
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="1" outlineLevelCol="6"/>
@@ -6321,8 +6323,8 @@
   <sheetPr/>
   <dimension ref="A1:I8"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7"/>
@@ -6381,10 +6383,10 @@
       <c r="G2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>26</v>
       </c>
     </row>
@@ -6410,10 +6412,10 @@
       <c r="G3" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H3" s="17" t="s">
+      <c r="H3" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I3" s="17" t="s">
+      <c r="I3" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6424,7 +6426,7 @@
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>60</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -6439,7 +6441,7 @@
       <c r="G4" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>31</v>
       </c>
       <c r="I4" s="11" t="s">
@@ -6468,10 +6470,10 @@
       <c r="G5" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="17" t="s">
+      <c r="I5" s="18" t="s">
         <v>29</v>
       </c>
     </row>
@@ -6523,7 +6525,7 @@
       <c r="F7" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="G7" s="20" t="s">
+      <c r="G7" s="21" t="s">
         <v>66</v>
       </c>
       <c r="H7" s="7" t="s">
